--- a/app/resources/file1.xlsx
+++ b/app/resources/file1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Guzel\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Guzel\Desktop\FinalProject\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="27">
-  <si>
-    <t>ж</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="23">
   <si>
     <t>очное</t>
-  </si>
-  <si>
-    <t>бюджет</t>
   </si>
   <si>
     <t>Биология</t>
@@ -40,12 +34,6 @@
   </si>
   <si>
     <t>Латинский язык</t>
-  </si>
-  <si>
-    <t>м</t>
-  </si>
-  <si>
-    <t>контракт</t>
   </si>
   <si>
     <t>№</t>
@@ -1017,8 +1005,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R1192"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11:E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1043,58 +1031,58 @@
   <sheetData>
     <row r="1" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="F1" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="5" t="s">
+      <c r="H1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="I1" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="J1" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" s="13" t="s">
+      <c r="L1" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="M1" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="O1" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="K1" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="L1" s="13" t="s">
+      <c r="P1" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="Q1" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="R1" s="13" t="s">
         <v>22</v>
-      </c>
-      <c r="N1" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="O1" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="P1" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q1" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="R1" s="13" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
@@ -1104,50 +1092,50 @@
       <c r="B2" s="3">
         <v>208651</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3">
         <v>1</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>2</v>
       </c>
       <c r="F2" s="11">
         <v>275</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H2" s="12">
         <v>91</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J2" s="12">
         <v>84</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L2" s="12">
         <v>100</v>
       </c>
       <c r="M2" s="12" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N2" s="12">
         <v>5</v>
       </c>
       <c r="O2" s="12" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P2" s="12">
         <v>5</v>
       </c>
       <c r="Q2" s="12" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R2" s="12">
         <v>5</v>
@@ -1160,50 +1148,50 @@
       <c r="B3" s="3">
         <v>208522</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3">
         <v>1</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>2</v>
       </c>
       <c r="F3" s="11">
         <v>270</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H3" s="12">
         <v>82</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J3" s="12">
         <v>90</v>
       </c>
       <c r="K3" s="12" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L3" s="12">
         <v>98</v>
       </c>
       <c r="M3" s="12" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N3" s="12">
         <v>5</v>
       </c>
       <c r="O3" s="12" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P3" s="12">
         <v>5</v>
       </c>
       <c r="Q3" s="12" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R3" s="12">
         <v>5</v>
@@ -1216,50 +1204,50 @@
       <c r="B4" s="3">
         <v>208640</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="3">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3">
         <v>1</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>2</v>
       </c>
       <c r="F4" s="11">
         <v>272</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H4" s="12">
         <v>79</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J4" s="12">
         <v>95</v>
       </c>
       <c r="K4" s="12" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L4" s="12">
         <v>98</v>
       </c>
       <c r="M4" s="12" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N4" s="12">
         <v>5</v>
       </c>
       <c r="O4" s="12" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P4" s="12">
         <v>5</v>
       </c>
       <c r="Q4" s="12" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R4" s="12">
         <v>4</v>
@@ -1272,50 +1260,50 @@
       <c r="B5" s="3">
         <v>208704</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>7</v>
+      <c r="C5" s="3">
+        <v>0</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="3">
         <v>1</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>2</v>
       </c>
       <c r="F5" s="11">
         <v>274</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H5" s="12">
         <v>89</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J5" s="12">
         <v>87</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L5" s="12">
         <v>98</v>
       </c>
       <c r="M5" s="12" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N5" s="12">
         <v>5</v>
       </c>
       <c r="O5" s="12" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P5" s="12">
         <v>5</v>
       </c>
       <c r="Q5" s="12" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R5" s="12">
         <v>4</v>
@@ -1328,50 +1316,50 @@
       <c r="B6" s="3">
         <v>215889</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>7</v>
+      <c r="C6" s="3">
+        <v>0</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="3">
         <v>1</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>2</v>
       </c>
       <c r="F6" s="11">
         <v>267</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H6" s="12">
         <v>93</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J6" s="12">
         <v>79</v>
       </c>
       <c r="K6" s="12" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L6" s="12">
         <v>95</v>
       </c>
       <c r="M6" s="12" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N6" s="12">
         <v>5</v>
       </c>
       <c r="O6" s="12" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P6" s="12">
         <v>5</v>
       </c>
       <c r="Q6" s="12" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R6" s="12">
         <v>5</v>
@@ -1384,50 +1372,50 @@
       <c r="B7" s="3">
         <v>208648</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="3">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="E7" s="3">
         <v>1</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>2</v>
       </c>
       <c r="F7" s="11">
         <v>291</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H7" s="12">
         <v>96</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J7" s="12">
         <v>95</v>
       </c>
       <c r="K7" s="12" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L7" s="12">
         <v>100</v>
       </c>
       <c r="M7" s="12" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N7" s="12">
         <v>5</v>
       </c>
       <c r="O7" s="12" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P7" s="12">
         <v>5</v>
       </c>
       <c r="Q7" s="12" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R7" s="12">
         <v>5</v>
@@ -1440,50 +1428,50 @@
       <c r="B8" s="3">
         <v>208658</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="3">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="E8" s="3">
         <v>1</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>2</v>
       </c>
       <c r="F8" s="11">
         <v>273</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H8" s="12">
         <v>91</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J8" s="12">
         <v>84</v>
       </c>
       <c r="K8" s="12" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L8" s="12">
         <v>98</v>
       </c>
       <c r="M8" s="12" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N8" s="12">
         <v>5</v>
       </c>
       <c r="O8" s="12" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P8" s="12">
         <v>5</v>
       </c>
       <c r="Q8" s="12" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R8" s="12">
         <v>5</v>
@@ -1496,50 +1484,50 @@
       <c r="B9" s="3">
         <v>208501</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="3">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="E9" s="3">
         <v>1</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>2</v>
       </c>
       <c r="F9" s="11">
         <v>294</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H9" s="12">
         <v>96</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J9" s="12">
         <v>98</v>
       </c>
       <c r="K9" s="12" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L9" s="12">
         <v>100</v>
       </c>
       <c r="M9" s="12" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N9" s="12">
         <v>5</v>
       </c>
       <c r="O9" s="12" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P9" s="12">
         <v>5</v>
       </c>
       <c r="Q9" s="12" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R9" s="12">
         <v>5</v>
@@ -1552,50 +1540,50 @@
       <c r="B10" s="3">
         <v>208536</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="3">
+        <v>1</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="E10" s="3">
         <v>1</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>2</v>
       </c>
       <c r="F10" s="11">
         <v>271</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H10" s="12">
         <v>86</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J10" s="12">
         <v>87</v>
       </c>
       <c r="K10" s="12" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L10" s="12">
         <v>98</v>
       </c>
       <c r="M10" s="12" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N10" s="12">
         <v>5</v>
       </c>
       <c r="O10" s="12" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P10" s="12">
         <v>5</v>
       </c>
       <c r="Q10" s="12" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R10" s="12">
         <v>5</v>
@@ -1608,50 +1596,50 @@
       <c r="B11" s="3">
         <v>215946</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>7</v>
+      <c r="C11" s="3">
+        <v>0</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0</v>
       </c>
       <c r="F11" s="11">
         <v>238</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H11" s="12">
         <v>93</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J11" s="12">
         <v>65</v>
       </c>
       <c r="K11" s="12" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L11" s="12">
         <v>80</v>
       </c>
       <c r="M11" s="12" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N11" s="12">
         <v>3</v>
       </c>
       <c r="O11" s="12" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P11" s="12">
         <v>4</v>
       </c>
       <c r="Q11" s="12" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R11" s="12">
         <v>4</v>
@@ -1664,50 +1652,50 @@
       <c r="B12" s="3">
         <v>215860</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="3">
+        <v>1</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>8</v>
+      <c r="E12" s="3">
+        <v>0</v>
       </c>
       <c r="F12" s="11">
         <v>234</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H12" s="12">
         <v>64</v>
       </c>
       <c r="I12" s="12" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J12" s="12">
         <v>84</v>
       </c>
       <c r="K12" s="12" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L12" s="12">
         <v>86</v>
       </c>
       <c r="M12" s="12" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N12" s="12">
         <v>5</v>
       </c>
       <c r="O12" s="12" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P12" s="12">
         <v>5</v>
       </c>
       <c r="Q12" s="12" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R12" s="12">
         <v>5</v>
@@ -1720,50 +1708,50 @@
       <c r="B13" s="3">
         <v>215893</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="3">
+        <v>1</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>8</v>
+      <c r="E13" s="3">
+        <v>0</v>
       </c>
       <c r="F13" s="11">
         <v>253</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H13" s="12">
         <v>78</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J13" s="12">
         <v>92</v>
       </c>
       <c r="K13" s="12" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L13" s="12">
         <v>83</v>
       </c>
       <c r="M13" s="12" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N13" s="12">
         <v>5</v>
       </c>
       <c r="O13" s="12" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P13" s="12">
         <v>5</v>
       </c>
       <c r="Q13" s="12" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R13" s="12">
         <v>5</v>
@@ -1776,50 +1764,50 @@
       <c r="B14" s="3">
         <v>215948</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="3">
+        <v>1</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
+      <c r="E14" s="3">
+        <v>0</v>
       </c>
       <c r="F14" s="11">
         <v>236</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H14" s="12">
         <v>72</v>
       </c>
       <c r="I14" s="12" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J14" s="12">
         <v>72</v>
       </c>
       <c r="K14" s="12" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L14" s="12">
         <v>92</v>
       </c>
       <c r="M14" s="12" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N14" s="12">
         <v>5</v>
       </c>
       <c r="O14" s="12" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P14" s="12">
         <v>5</v>
       </c>
       <c r="Q14" s="12" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R14" s="12">
         <v>5</v>
@@ -1832,50 +1820,50 @@
       <c r="B15" s="3">
         <v>215833</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="3">
+        <v>1</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>8</v>
+      <c r="E15" s="3">
+        <v>0</v>
       </c>
       <c r="F15" s="11">
         <v>182</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H15" s="12">
         <v>53</v>
       </c>
       <c r="I15" s="12" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J15" s="12">
         <v>61</v>
       </c>
       <c r="K15" s="12" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L15" s="12">
         <v>68</v>
       </c>
       <c r="M15" s="12" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N15" s="12">
         <v>5</v>
       </c>
       <c r="O15" s="12" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P15" s="12">
         <v>3</v>
       </c>
       <c r="Q15" s="12" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R15" s="12">
         <v>4</v>
@@ -1888,50 +1876,50 @@
       <c r="B16" s="3">
         <v>215943</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="3">
+        <v>1</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>8</v>
+      <c r="E16" s="3">
+        <v>0</v>
       </c>
       <c r="F16" s="11">
         <v>251</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H16" s="12">
         <v>86</v>
       </c>
       <c r="I16" s="12" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J16" s="12">
         <v>90</v>
       </c>
       <c r="K16" s="12" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L16" s="12">
         <v>75</v>
       </c>
       <c r="M16" s="12" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N16" s="12">
         <v>5</v>
       </c>
       <c r="O16" s="12" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P16" s="12">
         <v>5</v>
       </c>
       <c r="Q16" s="12" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R16" s="12">
         <v>4</v>
@@ -1944,50 +1932,50 @@
       <c r="B17" s="3">
         <v>215955</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="3">
+        <v>1</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>8</v>
+      <c r="E17" s="3">
+        <v>0</v>
       </c>
       <c r="F17" s="11">
         <v>255</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H17" s="12">
         <v>84</v>
       </c>
       <c r="I17" s="12" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J17" s="12">
         <v>76</v>
       </c>
       <c r="K17" s="12" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L17" s="12">
         <v>95</v>
       </c>
       <c r="M17" s="12" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N17" s="12">
         <v>5</v>
       </c>
       <c r="O17" s="12" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P17" s="12">
         <v>5</v>
       </c>
       <c r="Q17" s="12" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R17" s="12">
         <v>4</v>
@@ -2000,50 +1988,50 @@
       <c r="B18" s="3">
         <v>215959</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>7</v>
+      <c r="C18" s="3">
+        <v>0</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0</v>
       </c>
       <c r="F18" s="11">
         <v>242</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H18" s="12">
         <v>75</v>
       </c>
       <c r="I18" s="12" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J18" s="12">
         <v>72</v>
       </c>
       <c r="K18" s="12" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L18" s="12">
         <v>95</v>
       </c>
       <c r="M18" s="12" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N18" s="12">
         <v>5</v>
       </c>
       <c r="O18" s="12" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P18" s="12">
         <v>4</v>
       </c>
       <c r="Q18" s="12" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R18" s="12">
         <v>4</v>
@@ -2056,50 +2044,50 @@
       <c r="B19" s="3">
         <v>215954</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="3">
+        <v>1</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>8</v>
+      <c r="E19" s="3">
+        <v>0</v>
       </c>
       <c r="F19" s="11">
         <v>212</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H19" s="12">
         <v>76</v>
       </c>
       <c r="I19" s="12" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J19" s="12">
         <v>70</v>
       </c>
       <c r="K19" s="12" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L19" s="12">
         <v>66</v>
       </c>
       <c r="M19" s="12" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N19" s="12">
         <v>5</v>
       </c>
       <c r="O19" s="12" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P19" s="12">
         <v>5</v>
       </c>
       <c r="Q19" s="12" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R19" s="12">
         <v>4</v>
@@ -2112,50 +2100,50 @@
       <c r="B20" s="3">
         <v>215891</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="3">
+        <v>1</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>8</v>
+      <c r="E20" s="3">
+        <v>0</v>
       </c>
       <c r="F20" s="11">
         <v>230</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H20" s="12">
         <v>75</v>
       </c>
       <c r="I20" s="12" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J20" s="12">
         <v>69</v>
       </c>
       <c r="K20" s="12" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L20" s="12">
         <v>86</v>
       </c>
       <c r="M20" s="12" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N20" s="12">
         <v>5</v>
       </c>
       <c r="O20" s="12" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P20" s="12">
         <v>4</v>
       </c>
       <c r="Q20" s="12" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R20" s="12">
         <v>5</v>
@@ -2168,50 +2156,50 @@
       <c r="B21" s="3">
         <v>215829</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="3">
+        <v>1</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>8</v>
+      <c r="E21" s="3">
+        <v>0</v>
       </c>
       <c r="F21" s="11">
         <v>265</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H21" s="12">
         <v>84</v>
       </c>
       <c r="I21" s="12" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J21" s="12">
         <v>95</v>
       </c>
       <c r="K21" s="12" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L21" s="12">
         <v>86</v>
       </c>
       <c r="M21" s="12" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N21" s="12">
         <v>5</v>
       </c>
       <c r="O21" s="12" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P21" s="12">
         <v>4</v>
       </c>
       <c r="Q21" s="12" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R21" s="12">
         <v>4</v>
@@ -2224,50 +2212,50 @@
       <c r="B22" s="3">
         <v>215936</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="3">
+        <v>1</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>8</v>
+      <c r="E22" s="3">
+        <v>0</v>
       </c>
       <c r="F22" s="11">
         <v>259</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H22" s="12">
         <v>78</v>
       </c>
       <c r="I22" s="12" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J22" s="12">
         <v>92</v>
       </c>
       <c r="K22" s="12" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L22" s="12">
         <v>89</v>
       </c>
       <c r="M22" s="12" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N22" s="12">
         <v>5</v>
       </c>
       <c r="O22" s="12" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P22" s="12">
         <v>5</v>
       </c>
       <c r="Q22" s="12" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R22" s="12">
         <v>4</v>
@@ -2280,50 +2268,50 @@
       <c r="B23" s="3">
         <v>215849</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="3">
+        <v>1</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>8</v>
+      <c r="E23" s="3">
+        <v>0</v>
       </c>
       <c r="F23" s="11">
         <v>203</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H23" s="12">
         <v>55</v>
       </c>
       <c r="I23" s="12" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J23" s="12">
         <v>68</v>
       </c>
       <c r="K23" s="12" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L23" s="12">
         <v>80</v>
       </c>
       <c r="M23" s="12" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N23" s="12">
         <v>5</v>
       </c>
       <c r="O23" s="12" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P23" s="12">
         <v>5</v>
       </c>
       <c r="Q23" s="12" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R23" s="12">
         <v>5</v>
@@ -2336,50 +2324,50 @@
       <c r="B24" s="3">
         <v>215953</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="3">
+        <v>1</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>8</v>
+      <c r="E24" s="3">
+        <v>0</v>
       </c>
       <c r="F24" s="11">
         <v>239</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H24" s="12">
         <v>79</v>
       </c>
       <c r="I24" s="12" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J24" s="12">
         <v>68</v>
       </c>
       <c r="K24" s="12" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L24" s="12">
         <v>92</v>
       </c>
       <c r="M24" s="12" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N24" s="12">
         <v>5</v>
       </c>
       <c r="O24" s="12" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P24" s="12">
         <v>5</v>
       </c>
       <c r="Q24" s="12" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R24" s="12">
         <v>5</v>
@@ -2392,50 +2380,50 @@
       <c r="B25" s="3">
         <v>222442</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="3">
+        <v>1</v>
+      </c>
+      <c r="D25" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D25" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>8</v>
+      <c r="E25" s="3">
+        <v>0</v>
       </c>
       <c r="F25" s="11">
         <v>233</v>
       </c>
       <c r="G25" s="12" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H25" s="12">
         <v>74</v>
       </c>
       <c r="I25" s="12" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J25" s="12">
         <v>79</v>
       </c>
       <c r="K25" s="12" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L25" s="12">
         <v>80</v>
       </c>
       <c r="M25" s="12" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N25" s="12">
         <v>5</v>
       </c>
       <c r="O25" s="12" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P25" s="12">
         <v>4</v>
       </c>
       <c r="Q25" s="12" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R25" s="12">
         <v>3</v>
@@ -2448,50 +2436,50 @@
       <c r="B26" s="3">
         <v>208597</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>7</v>
+      <c r="C26" s="3">
+        <v>0</v>
       </c>
       <c r="D26" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3">
         <v>1</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>2</v>
       </c>
       <c r="F26" s="11">
         <v>279</v>
       </c>
       <c r="G26" s="12" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H26" s="12">
         <v>100</v>
       </c>
       <c r="I26" s="12" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J26" s="12">
         <v>87</v>
       </c>
       <c r="K26" s="12" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L26" s="12">
         <v>92</v>
       </c>
       <c r="M26" s="12" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N26" s="12">
         <v>5</v>
       </c>
       <c r="O26" s="12" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P26" s="12">
         <v>5</v>
       </c>
       <c r="Q26" s="12" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R26" s="12">
         <v>5</v>
